--- a/当直表作成/in/セカンド希望表勝木.xlsx
+++ b/当直表作成/in/セカンド希望表勝木.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7366eed0eee01ea7/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7366eed0eee01ea7/Documents/Python Scripts/自作プログラム/当直表作成/in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{C86145A8-3968-4874-A65A-13CC5EA43337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DE056A2-7CE5-4308-B4F4-B743C3AFF864}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{C86145A8-3968-4874-A65A-13CC5EA43337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{103572E4-450A-4D05-BD38-2780EE5698C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21380" windowHeight="15260" xr2:uid="{66ED9D4A-C5D1-4602-B8FE-A10D9FEC5844}"/>
+    <workbookView xWindow="5760" yWindow="2340" windowWidth="20820" windowHeight="11835" xr2:uid="{66ED9D4A-C5D1-4602-B8FE-A10D9FEC5844}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,16 +451,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC827CAD-8544-490B-AA34-5564BE9E4D52}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -480,27 +480,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B2">
         <f>IF(WEEKDAY(A2, 2) &gt; 5, 1, 0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>44379</v>
+        <v>44410</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B32" si="0">IF(WEEKDAY(A3, 2) &gt; 5, 1, 0)</f>
@@ -509,20 +509,17 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>44380</v>
+        <v>44411</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -534,13 +531,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>44381</v>
+        <v>44412</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -549,9 +546,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>44382</v>
+        <v>44413</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -560,16 +557,13 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>44383</v>
+        <v>44414</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -578,17 +572,20 @@
       <c r="C7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>44384</v>
+        <v>44415</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -600,64 +597,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>44385</v>
+        <v>44416</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>44386</v>
+        <v>44417</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>44387</v>
+        <v>44418</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>44388</v>
+        <v>44419</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -666,9 +663,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>44389</v>
+        <v>44420</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -681,9 +678,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>44390</v>
+        <v>44421</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -692,17 +689,20 @@
       <c r="C14">
         <v>0</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
       <c r="F14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>44391</v>
+        <v>44422</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -711,27 +711,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>44392</v>
+        <v>44423</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>44393</v>
+        <v>44424</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -740,17 +737,20 @@
       <c r="C17">
         <v>0</v>
       </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>44394</v>
+        <v>44425</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -762,24 +762,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>44395</v>
+        <v>44426</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>44396</v>
+        <v>44427</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -788,13 +791,16 @@
       <c r="C20">
         <v>0</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
-        <v>44397</v>
+        <v>44428</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -803,38 +809,41 @@
       <c r="C21">
         <v>0</v>
       </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
-        <v>44398</v>
+        <v>44429</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
-        <v>44399</v>
+        <v>44430</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -843,57 +852,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
-        <v>44400</v>
+        <v>44431</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
-        <v>44401</v>
+        <v>44432</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>44402</v>
+        <v>44433</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
       <c r="F26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
-        <v>44403</v>
+        <v>44434</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -906,9 +915,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
-        <v>44404</v>
+        <v>44435</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -917,17 +926,20 @@
       <c r="C28">
         <v>0</v>
       </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
       <c r="F28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
-        <v>44405</v>
+        <v>44436</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -936,27 +948,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
-        <v>44406</v>
+        <v>44437</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
-        <v>44407</v>
+        <v>44438</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -965,20 +974,17 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
       <c r="F31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
-        <v>44408</v>
+        <v>44439</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -987,13 +993,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
     </row>
   </sheetData>
